--- a/report/by_model.xlsx
+++ b/report/by_model.xlsx
@@ -633,31 +633,31 @@
         <v>884</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5135953724384308</v>
+        <v>0.5499140939542225</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06478405235224409</v>
+        <v>0.1135574105783093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7080706357955933</v>
+        <v>0.7883332371711731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5237413197755814</v>
+        <v>0.5773373884814126</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05697504453954302</v>
+        <v>0.1509610280983921</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6997318863868713</v>
+        <v>0.9233332872390748</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3636464835507143</v>
+        <v>0.3777265936889092</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3777265936889092</v>
+        <v>0.387698652504441</v>
       </c>
     </row>
     <row r="7">
